--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-FR065748.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-FR065748.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71247C45-C0C7-422D-B8B4-5ED563DC6B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1CED91-2622-4654-B104-349494BE9DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{93FE6699-49B3-4766-998A-65C4A07FB6B4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>Various paper supplies</t>
   </si>
@@ -45,10 +45,13 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>Professional Services</t>
-  </si>
-  <si>
     <t>Concierge Services</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>Beverages and Catering</t>
   </si>
 </sst>
 </file>
@@ -409,163 +412,163 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>761277</v>
+        <v>822625</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>42788</v>
+        <v>80642</v>
       </c>
       <c r="D1">
-        <v>222084</v>
+        <v>16128.4</v>
       </c>
       <c r="E1">
-        <v>44416.800000000003</v>
-      </c>
-      <c r="F1">
-        <v>266501</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
+        <v>96770.4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42740</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>571512</v>
+        <v>908175</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>42815</v>
+        <v>275073</v>
       </c>
       <c r="D2">
-        <v>48141</v>
+        <v>55014.6</v>
       </c>
       <c r="E2">
-        <v>9628.2000000000007</v>
-      </c>
-      <c r="F2">
-        <v>57769.2</v>
-      </c>
-      <c r="G2" t="s">
+        <v>330088</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>42767</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>120060</v>
+        <v>813487</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>42797</v>
+        <v>263844</v>
       </c>
       <c r="D3">
-        <v>112101</v>
+        <v>52768.800000000003</v>
       </c>
       <c r="E3">
-        <v>22420.2</v>
-      </c>
-      <c r="F3">
-        <v>134521</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+        <v>316613</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42821</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>203445</v>
+        <v>658557</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>42876</v>
+        <v>103405</v>
       </c>
       <c r="D4">
-        <v>178701</v>
+        <v>20681</v>
       </c>
       <c r="E4">
-        <v>35740.199999999997</v>
-      </c>
-      <c r="F4">
-        <v>214441</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
+        <v>124086</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42908</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>924093</v>
+        <v>500773</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>42909</v>
+        <v>22018</v>
       </c>
       <c r="D5">
-        <v>127492</v>
+        <v>4403.6000000000004</v>
       </c>
       <c r="E5">
-        <v>25498.400000000001</v>
-      </c>
-      <c r="F5">
-        <v>152990</v>
-      </c>
-      <c r="G5" t="s">
+        <v>26421.599999999999</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42934</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>886517</v>
+        <v>197994</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>42968</v>
+        <v>297041</v>
       </c>
       <c r="D6">
-        <v>272822</v>
+        <v>59408.2</v>
       </c>
       <c r="E6">
-        <v>54564.4</v>
-      </c>
-      <c r="F6">
-        <v>327386</v>
-      </c>
-      <c r="G6" t="s">
+        <v>356449</v>
+      </c>
+      <c r="F6" t="s">
         <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42949</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>676166</v>
+        <v>500448</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>43017</v>
+        <v>40111</v>
       </c>
       <c r="D7">
-        <v>56258</v>
+        <v>8022.2</v>
       </c>
       <c r="E7">
-        <v>11251.6</v>
-      </c>
-      <c r="F7">
-        <v>67509.600000000006</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
+        <v>48133.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42987</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -619,7 +622,7 @@
         <v>374202</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>43049</v>
